--- a/similarities/split_global/harmonic_similarity_timestamps_288.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_288.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:15.300000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:24.680000', '0:00:31.820000'), ('0:01:07.160000', '0:01:12.400000')]</t>
+          <t>('0:01:53.020000', '0:01:54.760000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:48.480000', '0:01:00.840000'), ('0:00:41.960000', '0:00:51.360000')]</t>
+          <t>('0:00:30.020000', '0:00:44.280000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=24.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=113.02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=48.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=41.96']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['F', 'C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:00:23.420000', '0:00:31.440000')]</t>
+          <t>('0:01:00.276984', '0:01:27.246961')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000'), ('0:00:23.400000', '0:00:31.320000')]</t>
+          <t>('0:02:11.460000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=60.276984</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=131.46</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj'], ['B:min', 'E:7/G#', 'A:maj']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:09.540000'), ('0:00:36.300000', '0:00:43.280000')]</t>
+          <t>('0:00:17.160000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000'), ('0:00:37.200000', '0:00:39.900000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=36.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=37.2']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['C/3', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:13.260000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:20.760000')]</t>
+          <t>('0:01:16.585782', '0:01:18.064810')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+          <t>('0:01:01.683832', '0:01:05.956303')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=121.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A#:7', 'D#:min', 'G#:min/B']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:25.260000', '0:00:34.280000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.340000')]</t>
+          <t>('0:00:02.081000', '0:00:10.249000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=2.081</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:dim7']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:dim7']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.760000', '0:00:03.130000')]</t>
+          <t>('0:00:16.720000', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.990000', '0:00:14.370000')]</t>
+          <t>('0:00:46.220000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=16.72</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.99']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.22</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:07.560000', '0:00:16.360000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['F:min', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:07.140000', '0:00:14.340000'), ('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:00:10.820000', '0:00:22.920000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000'), ('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:00:00.600000', '0:00:08.740000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=7.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>jaah_14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>jaah_77</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C', 'G:7', 'C']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:7', 'G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:16.560000', '0:00:25.690000')]</t>
+          <t>('0:01:50.130000', '0:02:18.500000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:41.030000', '0:01:07.840000')]</t>
+          <t>('0:00:16.560000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=16.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=110.13</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=41.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=16.56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000')]</t>
+          <t>('0:01:07.760000', '0:01:17.500000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>isophonics_198</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:19.340000'), ('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:07.300000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:00:18.965464', '0:00:23.342426')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_77</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['F:maj/A', 'A#:maj/D', 'D#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj']]</t>
+          <t>['F#', 'B', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:42.900000', '0:00:45.160000')]</t>
+          <t>('0:03:07.440000', '0:03:10.020000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:37.019000', '0:02:40.636000')]</t>
+          <t>('0:00:21.840737', '0:00:25.474660')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=187.44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-77#t=21.840737</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:14.746417')]</t>
+          <t>('0:00:37.540000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:28.020000', '0:00:30.100000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
